--- a/orders.xlsx
+++ b/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
   <si>
     <t>sr No</t>
   </si>
@@ -40,15 +40,15 @@
     <t>Total No of Boxes</t>
   </si>
   <si>
+    <t>123456</t>
+  </si>
+  <si>
     <t>catalogue</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>45678</t>
   </si>
   <si>
@@ -76,7 +76,7 @@
     <t>arpan25</t>
   </si>
   <si>
-    <t>harish</t>
+    <t>harisdh</t>
   </si>
   <si>
     <t>12394546558157</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I33"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,102 +593,138 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>123</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>432</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>123</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>34</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>432</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -696,13 +732,16 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>28700</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -712,138 +751,114 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>123</v>
+        <v>28700</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>34</v>
+        <v>28700</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>432</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>123</v>
+        <v>28700</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>432</v>
+        <v>28700</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -851,16 +866,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <v>28700</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -871,13 +883,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17">
         <v>28700</v>
@@ -891,16 +903,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>28700</v>
+        <v>11</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -911,13 +920,16 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>28700</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -927,17 +939,23 @@
       <c r="A20">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>28700</v>
+        <v>1320</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -947,14 +965,23 @@
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>1320</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -964,94 +991,130 @@
       <c r="A22">
         <v>20</v>
       </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H22">
-        <v>28700</v>
+        <v>1420</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>1440</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H24">
-        <v>28700</v>
+        <v>234</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="H25">
+        <v>234</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H26">
-        <v>28700</v>
+        <v>3425</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1059,25 +1122,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H27">
-        <v>1320</v>
+        <v>2345</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1085,206 +1148,109 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H28">
-        <v>1320</v>
+        <v>34562</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29">
-        <v>1420</v>
+        <v>11</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30">
-        <v>1440</v>
+        <v>11</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33">
-        <v>3425</v>
+        <v>11</v>
       </c>
       <c r="I33">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34">
-        <v>2345</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35">
-        <v>34562</v>
-      </c>
-      <c r="I35">
         <v>2</v>
       </c>
     </row>
